--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>4.036825632626817</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>4.090030569194725</v>
+        <v>3.407109591918855</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-3.591129714716879</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>-4.11977425520006</v>
+        <v>-1.300150869559236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.1110321191903019</v>
+        <v>-2.725947775269033</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>-4.715480642250625</v>
+        <v>3.52827217675542</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>4.427373160049175</v>
+        <v>1.194245528719495</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>8.171687307827558</v>
+        <v>5.993806847197725</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>6.130685532900904</v>
+        <v>7.607887362976751</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>8.03322551738226</v>
+        <v>3.063639588842682</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>7.024938805895942</v>
+        <v>6.924353497010971</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>8.703939237318981</v>
+        <v>3.881953143326466</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>3.165505535041224</v>
+        <v>7.155859501153827</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>2.539548427141214</v>
+        <v>3.737237443362851</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>2.688274587589135</v>
+        <v>0.354775830825127</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.6717944919448771</v>
+        <v>2.700497159199755</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>4.911355197600598</v>
+        <v>3.504647804006344</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>0.9946838291217786</v>
+        <v>5.106323395421475</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>5.837587351923346</v>
+        <v>2.62739064366051</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>5.487340994505363</v>
+        <v>4.130094879572455</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>5.562499360312567</v>
+        <v>3.830515520137801</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>4.09237104505884</v>
+        <v>3.858663141671226</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>5.494748269944894</v>
+        <v>5.194458387461709</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>4.195080504802551</v>
+        <v>4.328608026086478</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>4.463171841920266</v>
+        <v>4.721407739775696</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.590028883910469</v>
+        <v>4.372655645302403</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>4.230623896992025</v>
+        <v>4.429102498614346</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>4.466929963999822</v>
+        <v>4.21218881008929</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>4.971431636697599</v>
+        <v>5.324897060120137</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>4.933871867981643</v>
+        <v>5.783465271898192</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>6.043140264557834</v>
+        <v>4.964333730716497</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>5.805114579758142</v>
+        <v>5.850954342715009</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>4.424737146793878</v>
+        <v>4.990046926794744</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.36938819563848</v>
+        <v>5.410900500218596</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>4.005038151193219</v>
+        <v>4.531726208768672</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.568710393603181</v>
+        <v>4.693063499664252</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>5.456119081407906</v>
+        <v>4.115125864415514</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>4.016715734612819</v>
+        <v>4.871235017471043</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.46372163173876</v>
+        <v>4.557673974453769</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>3.886160845343123</v>
+        <v>5.208344373007368</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.394578533164361</v>
+        <v>3.383644094252025</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.0293693073427</v>
+        <v>3.4540322565767</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.918306187999509</v>
+        <v>3.273620772016161</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>3.346849276607955</v>
+        <v>3.2928463695165</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>3.033351895826453</v>
+        <v>3.901680317162204</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.1697522665757845</v>
+        <v>1.13158575217045</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.489644219722376</v>
+        <v>2.143123507515932</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-9.121145393096574</v>
+        <v>-9.2489161297999</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>8.901016312581778</v>
+        <v>-8.033751002286738</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>3.311473853895319</v>
+        <v>-4.319815935184923</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-9.2489161297999</v>
+        <v>-2.573749071621145</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-1.417336502781907</v>
+        <v>-1.545753571259545</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.7888645813307615</v>
+        <v>-1.77012120409461</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>6.664201294442429</v>
+        <v>-0.6252235182164778</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.9984771834683381</v>
+        <v>-1.287084480507283</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>6.640559540111668</v>
+        <v>0.7555897036957804</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>6.859306473574622</v>
+        <v>1.850145327219943</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-1.287084480507283</v>
+        <v>0.3839706909697815</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>5.684409614634189</v>
+        <v>-3.055292064789206</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.213037610570945</v>
+        <v>1.286283684448075</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.580434652382626</v>
+        <v>-2.183761975384579</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.969423516885649</v>
+        <v>1.494343500592232</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>5.449319663556662</v>
+        <v>-1.161086276452006</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.101763629409859</v>
+        <v>2.552834403233084</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>1.494343500592232</v>
+        <v>-0.3407161957438287</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>1.008942292657955</v>
+        <v>1.987749514178372</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.07497215279876901</v>
+        <v>-0.7189954590872905</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>4.040083433499064</v>
+        <v>0.7347074005453758</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.6099727569748192</v>
+        <v>-0.6982718287330991</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>3.741282892331332</v>
+        <v>0.4357420177721227</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.982193683323752</v>
+        <v>-1.04392885455985</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.6982718287330991</v>
+        <v>-1.305399582732825</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.8104515225652476</v>
+        <v>-0.9722577196979332</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.6331955302210424</v>
+        <v>-0.382605475081077</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>3.246859529593316</v>
+        <v>0.3097078768351302</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.00883970647999055</v>
+        <v>-0.4137309550271362</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>3.914957842639755</v>
+        <v>0.6619818620803297</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.755378915560413</v>
+        <v>0.8860470190541037</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.4137309550271362</v>
+        <v>0.3127680745294459</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>1.482352664753539</v>
+        <v>-0.5546801915590427</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.3259605486952699</v>
+        <v>0.2094327661663842</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.6483827323783498</v>
+        <v>-0.6242159253788016</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.2249761948293294</v>
+        <v>0.2267356977060819</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.1744462289204107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.2267356977060819</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>-0.1590727640771283</v>
+        <v>-0.4189713395563288</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>11.13090654781819</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>4.036825632626817</v>
+        <v>9.396507498425466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>7.193183327378438</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>3.407109591918855</v>
+        <v>9.591339540850875</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>4.672550446571067</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-3.591129714716879</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-1.300150869559236</v>
+        <v>4.422525088127283</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-4.715480642250625</v>
+        <v>-14.96173956806345</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-2.725947775269033</v>
+        <v>-4.932343798304595</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-14.45332333832743</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>3.52827217675542</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>1.194245528719495</v>
+        <v>-2.928447329610073</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>6.130685532900904</v>
+        <v>2.682935444832424</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>5.993806847197725</v>
+        <v>-2.225127715916653</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>8.600536527919633</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>7.607887362976751</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>3.063639588842682</v>
+        <v>6.303897256856628</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>8.703939237318981</v>
+        <v>9.399485634179229</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>6.924353497010971</v>
+        <v>1.811802132286955</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>10.25770250047622</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>3.881953143326466</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>7.155859501153827</v>
+        <v>10.22374275635105</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>2.688274587589135</v>
+        <v>5.169490031659674</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>3.737237443362851</v>
+        <v>9.213376886330305</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>4.639893381363169</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.354775830825127</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>2.700497159199755</v>
+        <v>8.174613408931286</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.9946838291217786</v>
+        <v>-0.3722371047999662</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>3.504647804006344</v>
+        <v>2.684220738731935</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.3058963467304165</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>5.106323395421475</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>2.62739064366051</v>
+        <v>2.429116709932622</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>5.562499360312567</v>
+        <v>4.098801479368341</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>4.130094879572455</v>
+        <v>2.548306621254004</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>4.068173739091874</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>3.830515520137801</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>3.858663141671226</v>
+        <v>3.9413000500929</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>4.195080504802551</v>
+        <v>3.75051862559701</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>5.194458387461709</v>
+        <v>2.714258593289975</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>4.984288257750213</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>4.328608026086478</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>4.721407739775696</v>
+        <v>4.188839638544284</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>4.230623896992025</v>
+        <v>2.352205130086071</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.372655645302403</v>
+        <v>3.873414041014778</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.878184267712912</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>4.429102498614346</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>4.21218881008929</v>
+        <v>2.514670279852349</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>4.933871867981643</v>
+        <v>4.083548352538369</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>5.324897060120137</v>
+        <v>3.586256146074462</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>4.695933104194339</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>5.783465271898192</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>4.964333730716497</v>
+        <v>4.5579527192392</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>5.850954342715009</v>
+        <v>6.704509587264518</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>4.990046926794744</v>
+        <v>4.268691600002228</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.410900500218596</v>
+        <v>4.861590900330692</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>4.531726208768672</v>
+        <v>3.297472770389764</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.456119081407906</v>
+        <v>5.402237127943743</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.693063499664252</v>
+        <v>4.104053120889217</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>4.892602738886098</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>4.115125864415514</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>4.871235017471043</v>
+        <v>1.957202207503861</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.557673974453769</v>
+        <v>1.675184815837505</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>5.208344373007368</v>
+        <v>3.589879698956056</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.383644094252025</v>
+        <v>1.787861866846807</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.4540322565767</v>
+        <v>4.088367525047842</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.346849276607955</v>
+        <v>0.8513583007189629</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>3.273620772016161</v>
+        <v>2.225279621195808</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>0.8049382522247184</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>3.2928463695165</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>3.901680317162204</v>
+        <v>2.267257846564918</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>1.13158575217045</v>
+        <v>1.015697339178034</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.143123507515932</v>
+        <v>2.122104735451602</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-9.2489161297999</v>
+        <v>-2.21482332957591</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-8.033751002286738</v>
+        <v>-0.6322362079330346</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-9.2489161297999</v>
+        <v>-9.810777096850787</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-4.319815935184923</v>
+        <v>-6.212835522792448</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-8.784173899737169</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-2.573749071621145</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-1.545753571259545</v>
+        <v>2.199380357735481</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.77012120409461</v>
+        <v>5.72229384158125</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.6252235182164778</v>
+        <v>1.117941783921328</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.287084480507283</v>
+        <v>6.09521976277807</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.7555897036957804</v>
+        <v>1.839905110456375</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.287084480507283</v>
+        <v>5.797134106720514</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.850145327219943</v>
+        <v>2.056896997569879</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>5.110501195359984</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>0.3839706909697815</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-3.055292064789206</v>
+        <v>0.3515918738370427</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.286283684448075</v>
+        <v>4.526365501075413</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-2.183761975384579</v>
+        <v>0.9036269924846962</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.494343500592232</v>
+        <v>3.616930127707629</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-1.161086276452006</v>
+        <v>1.391416039405691</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.494343500592232</v>
+        <v>4.232564748995715</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.552834403233084</v>
+        <v>2.135688430332006</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>5.120680133083599</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.3407161957438287</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>1.987749514178372</v>
+        <v>5.934275247805543</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.7189954590872905</v>
+        <v>1.102138938525221</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.7347074005453758</v>
+        <v>4.283383641765459</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.6982718287330991</v>
+        <v>0.7171092762090492</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.4357420177721227</v>
+        <v>2.755142438739822</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.6982718287330991</v>
+        <v>0.08070151925247959</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-1.04392885455985</v>
+        <v>1.265176565876436</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.5532735011319234</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-1.305399582732825</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.9722577196979332</v>
+        <v>-1.846917864698006</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.382605475081077</v>
+        <v>-2.696492768996317</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.3097078768351302</v>
+        <v>0.4317200868126703</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.4137309550271362</v>
+        <v>-0.1521036778360019</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.6619818620803297</v>
+        <v>1.645968204809645</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.4137309550271362</v>
+        <v>-0.9685570952743805</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.8860470190541037</v>
+        <v>-0.01788907424267183</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-1.069674659641462</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.3127680745294459</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-0.5546801915590427</v>
+        <v>-0.7986414110784379</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.2094327661663842</v>
+        <v>-4.127040013406502</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.6242159253788016</v>
+        <v>-2.535768303458463</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.2267356977060819</v>
+        <v>-2.051528019634985</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.4189713395563288</v>
+        <v>-0.3224191428759626</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-2.436529450546909</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>-0.469872647443903</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-9.810777096850787</v>
+        <v>-12.64425337954553</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-6.212835522792448</v>
+        <v>-18.48823254760789</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>2.199380357735481</v>
+        <v>-1.352810423674344</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>5.72229384158125</v>
+        <v>4.074459326939794</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.117941783921328</v>
+        <v>-0.2414327668618266</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>6.09521976277807</v>
+        <v>5.581748139214504</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.839905110456375</v>
+        <v>1.077755602068331</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>5.797134106720514</v>
+        <v>5.454877718182383</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.056896997569879</v>
+        <v>1.148476797857945</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>0.3515918738370427</v>
+        <v>-0.3934198590721416</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>4.526365501075413</v>
+        <v>6.968993777584775</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.9036269924846962</v>
+        <v>2.868249347208462</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>3.616930127707629</v>
+        <v>3.12692044325571</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.391416039405691</v>
+        <v>0.3931682903217437</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.232564748995715</v>
+        <v>4.323877885120919</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.135688430332006</v>
+        <v>1.534407168230834</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>5.934275247805543</v>
+        <v>4.36410677572221</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>1.102138938525221</v>
+        <v>5.356482122456185</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>4.283383641765459</v>
+        <v>12.62968440235452</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.7171092762090492</v>
+        <v>1.491421088056821</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.755142438739822</v>
+        <v>4.914994275397877</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.08070151925247959</v>
+        <v>0.1663052817736599</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.265176565876436</v>
+        <v>1.879456885507125</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-1.846917864698006</v>
+        <v>-0.01718213034729299</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.696492768996317</v>
+        <v>-2.464475897442042</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.4317200868126703</v>
+        <v>0.3893747626140698</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.1521036778360019</v>
+        <v>-0.6748604236165856</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.645968204809645</v>
+        <v>1.793234865396309</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9685570952743805</v>
+        <v>-0.8995735674420913</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.01788907424267183</v>
+        <v>0.3402056885013272</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-0.7986414110784379</v>
+        <v>-1.285281499260049</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-4.127040013406502</v>
+        <v>-3.767378395913701</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-2.535768303458463</v>
+        <v>-1.655020334777779</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-2.051528019634985</v>
+        <v>-2.112630615019295</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.3224191428759626</v>
+        <v>-0.6714033493142146</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-2.436529450546909</v>
+        <v>-2.517269536358435</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.469872647443903</v>
+        <v>-0.5945514555738884</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>11.13090654781819</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>9.396507498425466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>7.193183327378438</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>9.591339540850875</v>
+        <v>9.591339540850829</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>4.672550446571067</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>4.422525088127283</v>
+        <v>4.422525088127305</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-14.45332333832743</v>
+        <v>-14.45332333832744</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>-2.928447329610073</v>
+        <v>-2.928447329610051</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +502,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-2.225127715916653</v>
+        <v>-2.225127715916664</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>8.600536527919633</v>
+        <v>8.600536527919612</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -542,7 +530,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>9.399485634179229</v>
+        <v>9.399485634179205</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -576,13 +564,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>5.169490031659674</v>
+        <v>5.169490031659651</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>9.213376886330305</v>
+        <v>9.213376886330327</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,7 +581,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>4.639893381363169</v>
+        <v>4.639893381363192</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -610,13 +598,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.3722371047999662</v>
+        <v>-0.3722371047999995</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>2.684220738731935</v>
+        <v>2.684220738731979</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,7 +621,7 @@
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>2.429116709932622</v>
+        <v>2.429116709932599</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,7 +632,7 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>4.098801479368341</v>
+        <v>4.098801479368319</v>
       </c>
       <c r="D15">
         <v>2015</v>
@@ -667,7 +655,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>3.9413000500929</v>
+        <v>3.941300050092877</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +672,7 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>2.714258593289975</v>
+        <v>2.714258593289998</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -712,7 +700,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.352205130086071</v>
+        <v>2.352205130086094</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>4.083548352538369</v>
+        <v>4.083548352538391</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>3.586256146074462</v>
+        <v>3.58625614607444</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,7 +751,7 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>4.695933104194339</v>
+        <v>4.695933104194361</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -797,7 +785,7 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>4.861590900330692</v>
+        <v>4.861590900330715</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -814,13 +802,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.402237127943743</v>
+        <v>5.402237127943765</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.104053120889217</v>
+        <v>4.104053120889195</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -882,13 +870,13 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>0.8513583007189629</v>
+        <v>0.8513583007189407</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.225279621195808</v>
+        <v>2.225279621195853</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -916,13 +904,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>1.015697339178034</v>
+        <v>1.015697339178057</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.122104735451602</v>
+        <v>2.122104735451624</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,7 +927,7 @@
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.6322362079330346</v>
+        <v>-0.6322362079330235</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -973,7 +961,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.352810423674344</v>
+        <v>-1.352810423674367</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>4.074459326939794</v>
+        <v>4.074459326939817</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.2414327668618266</v>
+        <v>-0.2414327668618488</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1007,7 +995,7 @@
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.077755602068331</v>
+        <v>1.077755602068309</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1024,7 +1012,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.148476797857945</v>
+        <v>1.148476797857967</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1029,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.3934198590721416</v>
+        <v>-0.3934198590721305</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1092,7 +1080,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.534407168230834</v>
+        <v>1.534407168230811</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1103,7 +1091,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>5.120680133083599</v>
+        <v>5.120680133083622</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>5.356482122456185</v>
+        <v>5.356482122456163</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>12.62968440235452</v>
+        <v>12.6296844023545</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.5532735011319234</v>
+        <v>-0.5532735011319123</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1188,7 +1176,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.464475897442042</v>
+        <v>-2.464475897442031</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1211,7 +1199,7 @@
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.793234865396309</v>
+        <v>1.793234865396331</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.8995735674420913</v>
+        <v>-0.8995735674421024</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.3402056885013272</v>
+        <v>0.3402056885013494</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1233,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-1.285281499260049</v>
+        <v>-1.28528149926006</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1262,7 +1250,7 @@
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-1.655020334777779</v>
+        <v>-1.655020334777801</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1279,7 +1267,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.6714033493142146</v>
+        <v>-0.6714033493142035</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1296,7 +1284,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.5945514555738884</v>
+        <v>-0.5945514555738662</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>-0.5945514555738662</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-2.451276118722334</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-0.8888225292121632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
